--- a/file(2).xlsx
+++ b/file(2).xlsx
@@ -467,18 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82026</v>
+        <v>362312</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>316</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>316</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>316</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>316</v>
@@ -547,22 +547,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>82026</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>316</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +582,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>316</v>
@@ -589,45 +591,45 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>82026</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>316</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82026</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1592</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
@@ -643,60 +645,56 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
-        <v>1592</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>362312</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>362312</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
@@ -712,37 +710,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
-        <v>1592</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>362312</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -758,14 +754,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>1592</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="16">
@@ -774,42 +770,42 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>362312</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>362312</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
@@ -818,19 +814,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>362312</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="19">
@@ -860,19 +858,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>362312</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="21">
@@ -881,19 +881,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>362312</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -902,19 +904,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>362312</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>179</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23">
@@ -923,19 +927,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>362312</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24">
@@ -944,19 +950,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>362312</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>179</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25">
@@ -976,7 +984,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>1237</v>
@@ -990,19 +998,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1237</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27">
@@ -1013,19 +1021,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>1237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1036,19 +1044,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>1237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1059,111 +1067,127 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1237</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SXWK</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1237</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SXWK</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1237</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SXWK</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1237</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>YFVS</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>406</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1174,65 +1198,73 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YFVS</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>406</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YFVS</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>406</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1241,44 +1273,42 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B37" t="n">
+        <v>362312</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E38" t="n">
-        <v>406</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="39">
@@ -1287,21 +1317,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B39" t="n">
+        <v>362312</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -1310,67 +1338,69 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+      <c r="B40" t="n">
+        <v>362312</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>406</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>406</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SVQT</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>6</v>
-      </c>
-      <c r="E42" t="n">
-        <v>126</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1381,40 +1411,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>406</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="45">
@@ -1423,21 +1455,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B45" t="n">
+        <v>82026</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>126</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
@@ -1446,42 +1476,40 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B46" t="n">
+        <v>362312</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6270000290</v>
+        <v>82026</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>1628</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
@@ -1492,40 +1520,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>126</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>6270000290</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>1628</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="50">
@@ -1536,423 +1566,421 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E51" t="n">
-        <v>126</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>6270000290</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E52" t="n">
-        <v>1628</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6270000290</v>
+        <v>362312</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>1628</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6270000290</v>
+        <v>362312</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>1628</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>1628</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>197</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>362312</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>278967</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>278967</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>197</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>197</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>197</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>278967</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>278967</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>278967</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>278967</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69">
@@ -1981,24 +2009,28 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QNOD</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>197</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2014,14 +2046,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VKVV</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>116</v>
-      </c>
-      <c r="E71" t="n">
-        <v>278967</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2037,35 +2073,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VKVV</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>116</v>
-      </c>
-      <c r="E72" t="n">
-        <v>278967</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>82026</v>
+          <t>VAG</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016409399B</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>316</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
@@ -2074,105 +2116,113 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>82026</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>316</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>1592</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>82026</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>KXVW</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>5</v>
-      </c>
-      <c r="E76" t="n">
-        <v>316</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>82026</v>
+        <v>6270000290</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>316</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>82026</v>
+        <v>6270000290</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>316</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="79">
@@ -2181,42 +2231,44 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>362312</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>179</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>1592</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81">
@@ -2234,7 +2286,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
         <v>316</v>
@@ -2246,42 +2298,48 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>82026</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>316</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AZMF</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>35</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1592</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2297,125 +2355,129 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E84" t="n">
-        <v>1592</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>82026</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E85" t="n">
-        <v>316</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>362312</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>362312</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E87" t="n">
-        <v>179</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>362312</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>1592</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AZMF</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>35</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1592</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2466,86 +2528,92 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B92" t="n">
+        <v>82026</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>1237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>362312</v>
+          <t>VAG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016409399B</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AZMF</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>35</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1592</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>362312</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E95" t="n">
-        <v>179</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="96">
@@ -2555,18 +2623,18 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>362312</v>
+        <v>82026</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>179</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97">
@@ -2586,7 +2654,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
         <v>1237</v>
@@ -2598,19 +2666,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>362312</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="99">
@@ -2619,21 +2689,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B99" t="n">
+        <v>362312</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>1237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100">
@@ -2653,7 +2721,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
         <v>1237</v>
@@ -2662,24 +2730,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E101" t="n">
-        <v>406</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="102">
@@ -2690,19 +2758,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>1237</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103">
@@ -2711,21 +2779,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B103" t="n">
+        <v>362312</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>1237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104">
@@ -2734,21 +2800,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B104" t="n">
+        <v>362312</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>1237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105">
@@ -2759,19 +2823,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106">
@@ -2782,40 +2846,42 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="108">
@@ -2826,19 +2892,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D108" t="n">
         <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>1237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
@@ -2849,42 +2915,40 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>406</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="111">
@@ -2913,45 +2977,45 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>406</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="114">
@@ -2962,42 +3026,40 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>406</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="116">
@@ -3006,67 +3068,63 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B116" t="n">
+        <v>82026</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>126</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>126</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>197</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119">
@@ -3086,7 +3144,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
         <v>126</v>
@@ -3095,177 +3153,193 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>126</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>278967</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E122" t="n">
-        <v>126</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>6270000290</v>
+          <t>VAG</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>016409399B</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>1628</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>6270000290</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>YWDE</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1628</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>6270000290</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>YWDE</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1628</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>6270000290</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>YWDE</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1628</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>197</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128">
@@ -3276,63 +3350,69 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E128" t="n">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>6270000290</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>YWDE</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1628</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -3341,293 +3421,295 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B131" t="n">
+        <v>362312</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>197</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>197</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E135" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>QNOD</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>3</v>
-      </c>
-      <c r="E137" t="n">
-        <v>197</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>1592</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>82026</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>KXVW</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>316</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>82026</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>278967</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E143" t="n">
-        <v>197</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="144">
@@ -3654,47 +3736,47 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>278967</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
-        <v>1592</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147">
@@ -3703,19 +3785,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>82026</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>316</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148">
@@ -3724,63 +3808,65 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>362312</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E148" t="n">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>82026</v>
+        <v>6270000290</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>316</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="151">
@@ -3789,88 +3875,86 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B151" t="n">
+        <v>82026</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>1237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>1592</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
-        <v>278967</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>82026</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E154" t="n">
-        <v>316</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="155">
@@ -3888,7 +3972,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
         <v>316</v>
@@ -3897,89 +3981,93 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>82026</v>
+          <t>VAG</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>016409399B</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>316</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>1592</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>362312</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E158" t="n">
-        <v>179</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>1592</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160">
@@ -3988,197 +4076,207 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+      <c r="B160" t="n">
+        <v>82026</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>406</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>362312</v>
+        <v>6270000290</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>179</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E162" t="n">
-        <v>1237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E163" t="n">
-        <v>1592</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>1592</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SVQT</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>6</v>
-      </c>
-      <c r="E165" t="n">
-        <v>126</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>362312</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E166" t="n">
-        <v>179</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>362312</v>
+          <t>VAG</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>016409399B</t>
+        </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>82026</v>
+          <t>Autocomponent</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>01М21С9</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KXVW</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>316</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4198,7 +4296,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E169" t="n">
         <v>1237</v>
@@ -4207,22 +4305,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6270000290</v>
+        <v>82026</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D170" t="n">
         <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>1628</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171">
@@ -4231,19 +4329,21 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>362312</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
-        <v>179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="172">
@@ -4252,21 +4352,19 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B172" t="n">
+        <v>82026</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>1237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173">
@@ -4277,65 +4375,65 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E173" t="n">
-        <v>406</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mahle---Knecht</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AZMF</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>1592</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E175" t="n">
-        <v>1237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176">
@@ -4344,67 +4442,65 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B176" t="n">
+        <v>82026</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
-        <v>126</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>00004254A2</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>1237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E178" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179">
@@ -4415,197 +4511,199 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E180" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>362312</v>
+        <v>6270000290</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>179</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>1628</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>1237</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>126</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>406</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6270000290</v>
+        <v>82026</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D186" t="n">
         <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>1628</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Autocomponent</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>01М21С9</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>YFVS</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>406</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -4634,24 +4732,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E189" t="n">
-        <v>406</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="190">
@@ -4660,67 +4758,63 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
+      <c r="B190" t="n">
+        <v>82026</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E190" t="n">
-        <v>126</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>278967</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193">
@@ -4729,42 +4823,42 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
+      <c r="B193" t="n">
+        <v>82026</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SXWK</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E193" t="n">
-        <v>1237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>82026</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>KXVW</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E194" t="n">
-        <v>316</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="195">
@@ -4775,40 +4869,40 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6270000290</v>
+        <v>82026</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>4</v>
       </c>
       <c r="E196" t="n">
-        <v>1628</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197">
@@ -4817,109 +4911,109 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+      <c r="B197" t="n">
+        <v>362312</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>406</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>82026</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>KXVW</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" t="n">
-        <v>197</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>6270000290</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E199" t="n">
-        <v>1628</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>MZYN</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E200" t="n">
-        <v>278967</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>00004254A2</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E201" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="202">
@@ -4930,155 +5024,155 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>126</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SXWK</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
-        <v>197</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>1628</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>YFVS</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D205" t="n">
         <v>3</v>
       </c>
       <c r="E205" t="n">
-        <v>406</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="E206" t="n">
-        <v>278967</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E207" t="n">
-        <v>197</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E208" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="209">
@@ -5094,127 +5188,131 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>VKVV</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>116</v>
-      </c>
-      <c r="E209" t="n">
-        <v>278967</v>
+          <t>ТОВАР</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>НЕ</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>ДОСТУПЕН</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YFVS</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E210" t="n">
-        <v>278967</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SVQT</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E211" t="n">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>6270000290</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>SVQT</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E212" t="n">
-        <v>1628</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>016409399B</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>362312</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>ORQQ</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E213" t="n">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>01М21С9</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>QNOD</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E214" t="n">
-        <v>278967</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215">
@@ -5232,7 +5330,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E215" t="n">
         <v>316</v>
@@ -5241,47 +5339,45 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>Mahle---Knecht</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>QNOD</t>
+          <t>MZYN</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E216" t="n">
-        <v>197</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Autocomponent</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>01М21С9</t>
-        </is>
+          <t>ГАЗ</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>6270000290</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>VKVV</t>
+          <t>YWDE</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E217" t="n">
-        <v>278967</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
